--- a/Research Paper List/NASA(ADS) Initial Papers/Oct 7, 2025/nasa_ads_NN_oct_2025.xlsx
+++ b/Research Paper List/NASA(ADS) Initial Papers/Oct 7, 2025/nasa_ads_NN_oct_2025.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1323 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Author(s)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DOI Link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Citation Count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Radio frequency interference mitigation using deep convolutional neural networks</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Akeret, J., Chang, C., Lucchi, A., Refregier, A.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ascom.2017.01.002</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Astronomy and Computing</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Radio frequency interference, RFI mitigation, Deep learning, Convolutional neural network, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A CNN and LSTM-based approach to classifying transient radio frequency interference</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Czech, D., Mishra, A., Inggs, M.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ascom.2018.07.002</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Astronomy and Computing</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Transient radio frequency interference, Convolutional neural networks, Bidirectional long short-term memory (LSTM), Electrical Engineering and Systems Science - Signal Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A Self-learning Neural Network Approach for Radio Frequency Interference Detection and Removal in Radio Astronomy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saliwanchik, Benjamin R. B., Slosar, Anže</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1538-3873/ac98e1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publications of the Astronomical Society of the Pacific</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Neural networks, Baryon acoustic oscillations, Radio telescopes, Radio interferometry, Radio astronomy, 1933, 138, 1360, 1346, 1338, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DSC based Dual-Resunet for radio frequency interference identification</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zhang, Yan-Jun, Li, Yan-Zuo, Cheng, Jun, Yan, Yi-Hua</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1674-4527/ac2944</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Research in Astronomy and Astrophysics</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>techniques: deep learning and image processing, radio frequency interference, telescopes, Sun: radio radiation</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Detecting H I Galaxies with Deep Neural Networks in the Presence of Radio Frequency Interference</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liang, Ruxi, Deng, Furen, Yang, Zepei, Li, Chunming, Zhao, Feiyu, Yang, Botao, Shu, Shuanghao, Yang, Wenxiu, Zuo, Shifan, Li, Yichao, Wang, Yougang, Chen, Xuelei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1674-4527/acd0ed</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Research in Astronomy and Astrophysics</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>methods: data analysis, methods: observational, techniques: image processing, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Detecting radio frequency interference in radio-antenna arrays with the recurrent neural network algorithm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Burd, P. R., Mannheim, K., März, T., Ringholz, J., Kappes, A., Kadler, M.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/asna.201813505</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Astronomische Nachrichten</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>methods: Data analysis, methods: Numerical, radio continuum: General, radio lines: General, techniques: Interferometric, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Detection and segmentation of radio frequency interference from satellite images using attention-GANs</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>O. M., Sajichandrachood, Sethunadh, R.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ascom.2023.100769</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Astronomy and Computing</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Convolutional neural networks (CNN), Generative adversarial network (GAN), Pix2Pix, RFI segmentation, Satellite image segmentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RFI detection with spiking neural networks</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pritchard, N. J., Wicenec, A., Bennamoun, M., Dodson, R.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/pasa.2024.27</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications of the Astronomical Society of Australia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Interferometry, spiking neural networks, RFI detection, Astrophysics - Instrumentation and Methods for Astrophysics, Computer Science - Neural and Evolutionary Computing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Identification of Radio Frequency Interference Using Multi-scale TransUNet</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zhang, Xuan, Liang, Bo, Hao, Longfei, Feng, Song, Wei, Shoulin, Dai, Wei, Dao, Yihang</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1538-3873/ad54ef</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications of the Astronomical Society of the Pacific</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Radio astronomy, Convolutional neural networks, Astronomy data visualization, 1338, 1938, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Addressing Distribution Discrepancies in Pulsar Candidate Identification via Bayesian-neural-network-based Multimodal Incremental Learning</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liu, Yi, Jin, Jing, Zhao, Hongyang, Wang, Zhenyi, Shen, Yi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3847/1538-4365/ad9dec</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>The Astrophysical Journal Supplement Series</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pulsars, Convolutional neural networks, Radio pulsars, Astronomy data analysis, Astronomy data modeling, Astronomical object identification, 1306, 1938, 1353, 1858, 1859, 87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Deep residual detection of radio frequency interference for FAST</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yang, Zhicheng, Yu, Ce, Xiao, Jian, Zhang, Bo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stz3521</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>34</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>methods: data analysis, methods: observational, techniques: image processing, Astrophysics - Instrumentation and Methods for Astrophysics, Electrical Engineering and Systems Science - Image and Video Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A Machine Learning-based Direction-of-origin Filter for the Identification of Radio Frequency Interference in the Search for Technosignatures</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pinchuk, Pavlo, Margot, Jean-Luc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3847/1538-3881/ac426f</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>The Astronomical Journal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2127, 2128, 74, 1338, 1938, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - Earth and Planetary Astrophysics, Computer Science - Machine Learning, Electrical Engineering and Systems Science - Signal Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Radio frequency interference detection based on the AC-UNet model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yan, Rui-Qing, Dai, Cong, Liu, Wei, Li, Ji-Xia, Chen, Si-Ying, Yu, Xian-Chuan, Zuo, Shi-Fan, Chen, Xue-Lei</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1674-4527/21/5/119</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Research in Astronomy and Astrophysics</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>methods: data analysis, techniques: image processing, methods: observational</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mitigation of Radio Frequency Interference in the Solar Radio Spectrum Based on Deep Learning</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cheng, Jun, Li, Yanzuo, Zhang, Yanjun, Yan, Yihua, Tan, Chengming, Chen, Linjie, Wang, Wei</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11207-022-01975-w</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Solar Physics</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Instrumentation and data management, Radio bursts, Spectrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A Method to Detect Radio Frequency Interference Based on Convolutional Neural Networks</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DAI, C., ZUO, S. F., Liu, W., Li, J. X., Zhu, M., Wu, F. Q., Yu, X. C.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Astronomical Data Analysis Software and Systems XXVII</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Detection of radio frequency interference using an improved generative adversarial network</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Li, Z., Yu, C., Xiao, J., Long, M., Cui, C.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ascom.2021.100482</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Astronomy and Computing</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>RFI detecting, GAN, Image processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A Robust RFI Identification Method for Radio Interferometry Based on LightGBM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Li, Weijie, Cao, Zhong, Deng, Hui, Mei, Ying, Chen, Linjie, Wang, Feng</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1538-3873/acab2e</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Publications of the Astronomical Society of the Pacific</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Astronomical simulations, Astronomy data analysis, Astronomy data modeling, Classification, Neural networks, Astrostatistics techniques, 1857, 1858, 1859, 1907, 1933, 1886</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A robust RFI identification for radio interferometry based on a convolutional neural network</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sun, Haomin, Deng, Hui, Wang, Feng, Mei, Ying, Xu, Tingting, Smirnov, Oleg, Deng, Linhua, Wei, Shoulin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stac570</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>methods: data analysis, techniques: interferometric</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Detecting pulsars with neural networks: a proof of concept</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Künkel, Lars, Thomas, Rajat M., Verbiest, Joris P. W.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stab1628</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>methods: data analysis, pulsars: general, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - High Energy Astrophysical Phenomena</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DRAFTS: A Deep-learning-based Radio Fast Transient Search Pipeline</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Zhang, Yong-Kun, Li, Di, Feng, Yi, Tsai, Chao-Wei, Wang, Pei, Niu, Chen-Hui, Chen, Hua-Xi, Zhu, Yu-Hao</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3847/1538-4365/ad8f31</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>The Astrophysical Journal Supplement Series</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Radio transient sources, Convolutional neural networks, Astronomy software, Astronomy databases, 2008, 1938, 1855, 83, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - High Energy Astrophysical Phenomena</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Polarization-Inclusive Spiking Neural Networks for Real-Time RFI Detection in Modern Radio Telescopes</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pritchard, Nicholas J., Wicenec, Andreas, Dodson, Richard, Bennamoun, Mohammed</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.46620/25-0006</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>URSI Radio Science Letters</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Neural and Evolutionary Computing, Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Extracting the 21 cm Global signal using artificial neural networks</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Choudhury, Madhurima, Datta, Abhirup, Chakraborty, Arnab</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stz3107</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>methods: statistical, cosmology: observations, dark ages, reionization, first stars, cosmology: theory, Astrophysics - Cosmology and Nongalactic Astrophysics, Physics - Computational Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Narrow-band Signal Localization for SETI on Noisy Synthetic Spectrogram Data</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Brzycki, Bryan, Siemion, Andrew P. V., Croft, Steve, Czech, Daniel, DeBoer, David, DeMarines, Julia, Drew, Jamie, Gajjar, Vishal, Isaacson, Howard, Lacki, Brian, Lebofsky, Matthew, MacMahon, David H. E., de Pater, Imke, Price, Danny C., Worden, S. Pete</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1538-3873/abaaf7</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Publications of the Astronomical Society of the Pacific</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Technosignatures, Search for extraterrestrial intelligence, Astrobiology, Convolutional neural networks, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FETCH: A deep-learning based classifier for fast transient classification</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Agarwal, Devansh, Aggarwal, Kshitij, Burke-Spolaor, Sarah, Lorimer, Duncan R., Garver-Daniels, Nathaniel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/staa1856</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>123</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>methods: data analysis, pulsars: general, fast radio bursts, Astrophysics - Instrumentation and Methods for Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A deep neural network based reverse radio spectrogram search algorithm</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ma, Peter Xiangyuan, Croft, Steve, Lintott, Chris, Siemion, Andrew P. V.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/rasti/rzad056</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>RAS Techniques and Instruments</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Machine Learning, Data Methods, Signal Processing, Radio Astronomy, Technosignatures, Electrical Engineering and Systems Science - Signal Processing, Astrophysics - Instrumentation and Methods for Astrophysics, Computer Science - Machine Learning, Computer Science - Sound, Electrical Engineering and Systems Science - Audio and Speech Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ground Support of Juno Mission and RFI Mitigation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Zakharenko, V., Kharlanova, V., Ryabov, V., Yerin, S., Brazhenko, A., Fransuzenko, A., Konovalenko, O.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.25546/103685</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Planetary, Solar and Heliospheric Radio Emissions IX</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Astrophysics - Earth and Planetary Astrophysics, Solar System, Planetary radio emission, Magnetospheric physics, Jupiter, Juno, Instruments and techniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Scalable framework of intelligent RFI flagging for large-scale HI survey data from FAST</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Xiao, Jian, Zhang, Yajie, Zhang, Bo, Yang, Zhicheng, Yu, Ce, Cui, Chenzhou</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.newast.2022.101825</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>New Astronomy</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>RFI detecting, Deep learning, Parallel workflows, Neural networks</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Separation of pulsar signals from noise using supervised machine learning algorithms</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bethapudi, S., Desai, S.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ascom.2018.02.002</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>63</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Astronomy and Computing</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Methods, Data analysis stars, Neutron, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - High Energy Astrophysical Phenomena</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Optimizing sparse RFI prediction using deep learning</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kerrigan, Joshua, La Plante, Paul, Kohn, Saul, Pober, Jonathan C., Aguirre, James, Abdurashidova, Zara, Alexander, Paul, Ali, Zaki S., Balfour, Yanga, Beardsley, Adam P., Bernardi, Gianni, Bowman, Judd D., Bradley, Richard F., Burba, Jacob, Carilli, Chris L., Cheng, Carina, DeBoer, David R., Dexter, Matt, Acedo, Eloy de Lera, Dillon, Joshua S., Estrada, Julia, Ewall-Wice, Aaron, Fagnoni, Nicolas, Fritz, Randall, Furlanetto, Steve R., Glendenning, Brian, Greig, Bradley, Grobbelaar, Jasper, Gorthi, Deepthi, Halday, Ziyaad, Hazelton, Bryna J., Hickish, Jack, Jacobs, Daniel C., Julius, Austin, Kern, Nicholas S., Kittiwisit, Piyanat, Kolopanis, Matthew, Lanman, Adam, Lekalake, Telalo, Liu, Adrian, MacMahon, David, Malan, Lourence, Malgas, Cresshim, Maree, Matthys, Martinot, Zachary E., Matsetela, Eunice, Mesinger, Andrei, Molewa, Mathakane, Morales, Miguel F., Mosiane, Tshegofalang, Neben, Abraham R., Parsons, Aaron R., Patra, Nipanjana, Pieterse, Samantha, Razavi-Ghods, Nima, Ringuette, Jon, Robnett, James, Rosie, Kathryn, Sims, Peter, Smith, Craig, Syce, Angelo, Thyagarajan, Nithyanandan, Williams, Peter K. G., Zheng, Haoxuan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stz1865</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>45</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>methods: data analysis, techniques: interferometric, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - Cosmology and Nongalactic Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Characterization of inpaint residuals in interferometric measurements of the epoch of reionization</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pagano, Michael, Liu, Jing, Liu, Adrian, Kern, Nicholas S., Ewall-Wice, Aaron, Bull, Philip, Pascua, Robert, Ravanbakhsh, Siamak, Abdurashidova, Zara, Adams, Tyrone, Aguirre, James E., Alexander, Paul, Ali, Zaki S., Baartman, Rushelle, Balfour, Yanga, Beardsley, Adam P., Bernardi, Gianni, Billings, Tashalee S., Bowman, Judd D., Bradley, Richard F., Burba, Jacob, Carey, Steven, Carilli, Chris L., Cheng, Carina, DeBoer, David R., de Lera Acedo, Eloy, Dexter, Matt, Dillon, Joshua S., Eksteen, Nico, Ely, John, Fagnoni, Nicolas, Fritz, Randall, Furlanetto, Steven R., Gale-Sides, Kingsley, Glendenning, Brian, Gorthi, Deepthi, Greig, Bradley, Grobbelaar, Jasper, Halday, Ziyaad, Hazelton, Bryna J., Hewitt, Jacqueline N., Hickish, Jack, Jacobs, Daniel C., Julius, Austin, Kariseb, MacCalvin, Kerrigan, Joshua, Kittiwisit, Piyanat, Kohn, Saul A., Kolopanis, Matthew, Lanman, Adam, La Plante, Paul, Loots, Anita, MacMahon, David Harold Edward, Malan, Lourence, Malgas, Cresshim, Malgas, Keith, Marero, Bradley, Martinot, Zachary E., Mesinger, Andrei, Molewa, Mathakane, Morales, Miguel F., Mosiane, Tshegofalang, Neben, Abraham R., Nikolic, Bojan, Nuwegeld, Hans, Parsons, Aaron R., Patra, Nipanjana, Pieterse, Samantha, Razavi-Ghods, Nima, Robnett, James, Rosie, Kathryn, Sims, Peter, Smith, Craig, Swarts, Hilton, Thyagarajan, Nithyanandan, van Wyngaarden, Pieter, Williams, Peter K. G., Zheng, Haoxuan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stad441</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>methods: observational, methods: statistical, dark ages, reionization, first stars, large-scale structure of Universe, Astrophysics - Instrumentation and Methods for Astrophysics, Astrophysics - Cosmology and Nongalactic Astrophysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pulsar-candidate Selection Using a Generative Adversarial Network and ResNeXt</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yin, Qian, Li, Yefan, Li, Jiajie, Zheng, Xin, Guo, Ping</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3847/1538-4365/ac9e54</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>The Astrophysical Journal Supplement Series</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pulsars, Astronomy data analysis, 1306, 1858</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pulsar candidate classification using generative adversary networks</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Guo, Ping, Duan, Fuqing, Wang, Pei, Yao, Yao, Yin, Qian, Xin, Xin, Li, Di, Qian, Lei, Wang, Shen, Pan, Zhichen, Zhang, Lei</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/mnras/stz2975</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>25</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Monthly Notices of the Royal Astronomical Society</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>methods: data analysis, methods: numerical, methods: statistical, pulsars: general</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U-NetIM: An Improved U-Net for Automatic Recognition of RFIs</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Long, Min, Yang, Zhicheng, Xiao, Jian, Yu, Ce, Zhang, Bo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Astronomical Data Analysis Software and Systems XXVII</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Convolutional Neural Networks for Radio Signals from Cosmic-Ray Air Showers</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rehman, Abdul</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ph.D. Thesis</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Physics; Astrophysics; Particle physics; Computational physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>High-cadence monitoring of the emission properties of magnetar XTE J1810−197 with the Stockert radio telescope</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bause, Marlon L., Herrmann, Wolfgang, Spitler, Laura G.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1051/0004-6361/202348878</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Astronomy and Astrophysics</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>stars: magnetars, stars: neutron, stars: individual: XTE J1810-197, Astrophysics - High Energy Astrophysical Phenomena, Astrophysics - Solar and Stellar Astrophysics, High Energy Physics - Phenomenology</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Solar radio filtering algorithm based on improved long short-term memory</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Du, Qing-Fu, Zhang, Qiao-Man, Li, Xin, Gao, Chang-Lin</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1674-4527/21/4/79</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Research in Astronomy and Astrophysics</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sun: radio radiation, methods: data analysis, techniques: image processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A Search for Relativistic Binary Pulsars in the Galactic Plane</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Eatough, Ralph Paul</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ph.D. Thesis</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Astronomy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>